--- a/GlassFibreData.xlsx
+++ b/GlassFibreData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noamh\OneDrive\Documents\Programming\PycharmProjects\NFDataAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noamh\OneDrive\Documents\Programming\PycharmProjects\NfDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2903F18F-3A56-41F5-BE52-A52DDD30F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{470A0554-DAF0-4EFE-8FA5-D99B37A640DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+  <si>
+    <t>Source -&gt;</t>
+  </si>
+  <si>
+    <t>M. Kathiresan</t>
+  </si>
   <si>
     <t>Source 3</t>
   </si>
@@ -44,61 +50,40 @@
     <t>Source 4</t>
   </si>
   <si>
-    <t>Source 5</t>
-  </si>
-  <si>
     <t>Source 6</t>
   </si>
   <si>
+    <t>Final Data:</t>
+  </si>
+  <si>
+    <t>URL -&gt;</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/259368776_Kathiresan_M_Manisekar_K_And_Manikandan_V_Performance_analysis_of_fiber_metal_laminated_thin_conical_frusta_under_axial_compression_Composite_Structures_94_2012_3510-3519</t>
+  </si>
+  <si>
+    <t>URL6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Avg</t>
   </si>
   <si>
     <t>Std</t>
   </si>
   <si>
-    <t>Source -&gt;</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/259368776_Kathiresan_M_Manisekar_K_And_Manikandan_V_Performance_analysis_of_fiber_metal_laminated_thin_conical_frusta_under_axial_compression_Composite_Structures_94_2012_3510-3519</t>
-  </si>
-  <si>
-    <t>M. Kathiresan</t>
-  </si>
-  <si>
-    <t>URL -&gt;</t>
-  </si>
-  <si>
-    <t>URL3</t>
-  </si>
-  <si>
-    <t>URL4</t>
-  </si>
-  <si>
-    <t>URL5</t>
-  </si>
-  <si>
-    <t>URL6</t>
+    <t>Fibre Volume [%]</t>
   </si>
   <si>
     <t>Density [kg/m^3]</t>
   </si>
   <si>
+    <t>Stiffness [GPa]</t>
+  </si>
+  <si>
     <t>T Strength [MPa]</t>
-  </si>
-  <si>
-    <t>C Strength  [MPa]</t>
-  </si>
-  <si>
-    <t>Fibre Volume [%]</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Stiffness [GPa]</t>
-  </si>
-  <si>
-    <t>Shear Stress [MPa]</t>
   </si>
   <si>
     <r>
@@ -127,12 +112,15 @@
     </r>
   </si>
   <si>
-    <t>Final Data:</t>
+    <t>C Strength  [MPa]</t>
   </si>
   <si>
     <t>C Toughness [MJ/m^2]</t>
   </si>
   <si>
+    <t>Shear Stress [MPa]</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1023/B:JMSC.0000017779.08041.49</t>
   </si>
   <si>
@@ -157,7 +145,46 @@
     <t>Toughness [MJ/m^2]</t>
   </si>
   <si>
-    <t>N.A.</t>
+    <t>*This image is from another excel that I added to the Teams with the name: VolumeFracCalc</t>
+  </si>
+  <si>
+    <t>Optidat UPWIND (see teams)</t>
+  </si>
+  <si>
+    <t>Tension (27)</t>
+  </si>
+  <si>
+    <t>Compression (27)</t>
+  </si>
+  <si>
+    <t>Tension (30, sample number)</t>
+  </si>
+  <si>
+    <t>Compression (85, sample number)</t>
+  </si>
+  <si>
+    <t>Sage Journals</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/epub/10.1177/1528083719874479</t>
+  </si>
+  <si>
+    <t>Source 5: Sage Journals</t>
+  </si>
+  <si>
+    <t>Source 4: Optidat (see teams), 4 layer composite</t>
+  </si>
+  <si>
+    <t>Source 3: Optidat (see teams), 4 layer composite</t>
+  </si>
+  <si>
+    <t>Source 6: Optidat (see teams), 7 layer composite</t>
+  </si>
+  <si>
+    <t>Tension (104)</t>
+  </si>
+  <si>
+    <t>Compression (104)</t>
   </si>
 </sst>
 </file>
@@ -181,15 +208,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,15 +492,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -482,9 +507,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -495,18 +519,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,6 +552,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>374017</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6EAC7E-E1BF-8BD2-21A9-59B9BB7E25C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311140" y="2788920"/>
+          <a:ext cx="7346317" cy="3055885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,273 +904,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K24"/>
+  <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="I3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="C4" s="13">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10">
+        <f>(C19+D19)/2</f>
+        <v>40</v>
+      </c>
+      <c r="E4" s="10">
+        <f>(C30+D30)/2</f>
+        <v>49.64</v>
+      </c>
+      <c r="F4" s="10">
+        <f>C40</f>
+        <v>50.66</v>
+      </c>
+      <c r="G4" s="10">
+        <f>C49</f>
+        <v>35</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J11" si="0">AVERAGE(C4:H4)</f>
+        <v>47.059999999999995</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" ref="K4:K11" si="1">_xlfn.STDEV.P(C4:H4)</f>
+        <v>8.7446806688409424</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="15">
-        <v>60</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="27">
-        <f>AVERAGE(C4:H4)</f>
-        <v>60</v>
-      </c>
-      <c r="K4" s="28">
-        <f>_xlfn.STDEV.P(C4:H4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="12">
+        <v>1800</v>
+      </c>
+      <c r="D5">
+        <f>C20</f>
+        <v>2560</v>
+      </c>
+      <c r="E5">
+        <f>(C31+D31)/2</f>
+        <v>1800</v>
+      </c>
+      <c r="F5">
+        <f>C41</f>
+        <v>1830</v>
+      </c>
+      <c r="G5">
+        <f>C50</f>
+        <v>1643</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="22"/>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1926.6</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>323.42269555490384</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16">
-        <v>1800</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="5">
-        <f>AVERAGE(C5:H5)</f>
-        <v>1800</v>
-      </c>
-      <c r="K5" s="7">
-        <f>_xlfn.STDEV.P(C5:H5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>30.9</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="5">
-        <f t="shared" ref="J6:J11" si="0">AVERAGE(C6:H6)</f>
-        <v>30.9</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" ref="K6:K11" si="1">_xlfn.STDEV.P(C6:H6)</f>
-        <v>0</v>
+      <c r="D6">
+        <f>(C21+D21)/2</f>
+        <v>54.5</v>
+      </c>
+      <c r="E6">
+        <f>(C32+D32)/2</f>
+        <v>39.064999999999998</v>
+      </c>
+      <c r="F6">
+        <f>(C42+D42)/2</f>
+        <v>37.972499999999997</v>
+      </c>
+      <c r="G6">
+        <f>C51</f>
+        <v>27.969999999999995</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="22"/>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>38.081499999999998</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>9.2126290492996397</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>798</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="5">
+      <c r="D7">
+        <f>C22</f>
+        <v>1950</v>
+      </c>
+      <c r="E7">
+        <f>C33</f>
+        <v>765.53</v>
+      </c>
+      <c r="F7">
+        <f>C43</f>
+        <v>830.08500000000004</v>
+      </c>
+      <c r="G7">
+        <f>C52</f>
+        <v>1261.5</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="22"/>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>798</v>
-      </c>
-      <c r="K7" s="7">
+        <v>1121.0229999999999</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>452.17268946277585</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12">
         <f>(C7/(C6*1000)*C7)/2</f>
         <v>10.304271844660194</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="5">
+      <c r="D8">
+        <f>C23</f>
+        <v>25.016447368421051</v>
+      </c>
+      <c r="E8">
+        <f>C34</f>
+        <v>7.530662823181701</v>
+      </c>
+      <c r="F8">
+        <f>C44</f>
+        <v>9.2700270042378587</v>
+      </c>
+      <c r="G8">
+        <f>C53</f>
+        <v>28.448020200214518</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="22"/>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>10.304271844660194</v>
-      </c>
-      <c r="K8" s="7">
+        <v>16.113885848143063</v>
+      </c>
+      <c r="K8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.7823482973322573</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12">
         <v>480</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="5">
+      <c r="D9">
+        <f>D22</f>
+        <v>595</v>
+      </c>
+      <c r="E9">
+        <f>D33</f>
+        <v>510.255</v>
+      </c>
+      <c r="F9">
+        <f>D43</f>
+        <v>452.63</v>
+      </c>
+      <c r="G9">
+        <f>D52</f>
+        <v>740.3</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="22"/>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="K9" s="7">
+        <v>555.63700000000006</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>103.96229420323452</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12">
         <f>(C9/(C6*1000)*C9)/2</f>
         <v>3.7281553398058249</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
+      <c r="D10">
+        <f>D23</f>
+        <v>5.3640151515151517</v>
+      </c>
+      <c r="E10">
+        <f>D34</f>
+        <v>3.3192269890999491</v>
+      </c>
+      <c r="F10">
+        <f>D44</f>
+        <v>2.6414893875709127</v>
+      </c>
+      <c r="G10">
+        <f>D53</f>
+        <v>9.7969983911333571</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="22"/>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>3.7281553398058249</v>
-      </c>
-      <c r="K10" s="7">
+        <v>4.9699770518250386</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="17">
+        <v>2.5746593083652112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14">
         <v>70</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="9">
+      <c r="D11" s="7">
+        <f>C24</f>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <f>C54</f>
+        <v>148</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="K11" s="10">
+        <v>94.466666666666654</v>
+      </c>
+      <c r="K11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.900337143032871</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -1102,70 +1267,397 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>2560</v>
+      </c>
+      <c r="D20">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
+      <c r="C21">
+        <v>76</v>
       </c>
       <c r="D21">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f>(1400+2500)/2</f>
+        <v>1950</v>
       </c>
       <c r="D22">
         <v>595</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <f>(C22/(C21*1000)*C22)/2</f>
+        <v>25.016447368421051</v>
+      </c>
+      <c r="D23">
+        <f>(D22/(D21*1000)*D22)/2</f>
+        <v>5.3640151515151517</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>20</v>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C24">
         <v>65.400000000000006</v>
       </c>
       <c r="D24">
         <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>49.49</v>
+      </c>
+      <c r="D30">
+        <v>49.79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <f>1.79*1000</f>
+        <v>1790</v>
+      </c>
+      <c r="D31">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <f>(37.74+40.08)/2</f>
+        <v>38.909999999999997</v>
+      </c>
+      <c r="D32">
+        <f>(38.34+40.1)/2</f>
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f>(695.03+836.03)/2</f>
+        <v>765.53</v>
+      </c>
+      <c r="D33">
+        <f>(480.82+539.69)/2</f>
+        <v>510.255</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <f>(C33/(C32*1000)*C33)/2</f>
+        <v>7.530662823181701</v>
+      </c>
+      <c r="D34">
+        <f>(D33/(D32*1000)*D33)/2</f>
+        <v>3.3192269890999491</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>50.66</v>
+      </c>
+      <c r="D40">
+        <v>50.66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <f>1.83*1000</f>
+        <v>1830</v>
+      </c>
+      <c r="D41">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <f>(36.3+38.03)/2</f>
+        <v>37.164999999999999</v>
+      </c>
+      <c r="D42">
+        <f>(38.6+38.96)/2</f>
+        <v>38.78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <f>(792.76+867.41)/2</f>
+        <v>830.08500000000004</v>
+      </c>
+      <c r="D43">
+        <f>(450.76+454.5)/2</f>
+        <v>452.63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <f>(C43/(C42*1000)*C43)/2</f>
+        <v>9.2700270042378587</v>
+      </c>
+      <c r="D44">
+        <f>(D43/(D42*1000)*D43)/2</f>
+        <v>2.6414893875709127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <f>(1160*((100-C49)/100))+(2540*(C49/100))</f>
+        <v>1643</v>
+      </c>
+      <c r="D50">
+        <f>(1160*((100-C49)/100))+(2540*(C49/100))</f>
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <f>(4.1*0.65)+(72.3*0.35)</f>
+        <v>27.969999999999995</v>
+      </c>
+      <c r="D51">
+        <f>(4.1*0.65)+(72.3*0.35)</f>
+        <v>27.969999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <f xml:space="preserve"> (110*(0.65))+(3400*0.35)</f>
+        <v>1261.5</v>
+      </c>
+      <c r="D52">
+        <f>(62*0.65)+(2000*0.35)</f>
+        <v>740.3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <f>(C52/(C51*1000)*C52)/2</f>
+        <v>28.448020200214518</v>
+      </c>
+      <c r="D53">
+        <f>(D52/(D51*1000)*D52)/2</f>
+        <v>9.7969983911333571</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>148</v>
+      </c>
+      <c r="D54">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>53.73</v>
+      </c>
+      <c r="D58">
+        <v>53.73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <f>1.92*1000</f>
+        <v>1920</v>
+      </c>
+      <c r="D59">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <f>(13.54+16.2)/2</f>
+        <v>14.87</v>
+      </c>
+      <c r="D60">
+        <f>(14.7+16.84)/2</f>
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <f>(49.58+250.19)/2</f>
+        <v>149.88499999999999</v>
+      </c>
+      <c r="D61">
+        <f>(450.76+454.5)/2</f>
+        <v>452.63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <f>(C61/(C60*1000)*C61)/2</f>
+        <v>0.75539721671149951</v>
+      </c>
+      <c r="D62">
+        <f>(D61/(D60*1000)*D61)/2</f>
+        <v>6.4956853804692454</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{120CD66C-39EC-437B-8FE9-083AD059ED01}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{111B93FE-2849-45C3-B062-7A2F129A0A6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1314,18 +1806,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1347,25 +1839,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A8D0AD4-44EF-4558-9CAA-CFFA5C98DC5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1c0a96b1-0f0d-4d41-9c7c-d5f7d15f73b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A689D0E4-66FF-4ADC-A512-E9CC6C2863FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A8D0AD4-44EF-4558-9CAA-CFFA5C98DC5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1c0a96b1-0f0d-4d41-9c7c-d5f7d15f73b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>